--- a/QMS_FPGA_Register_Mapping.xlsx
+++ b/QMS_FPGA_Register_Mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4092" yWindow="792" windowWidth="7956" windowHeight="4932" tabRatio="387"/>
+    <workbookView xWindow="4092" yWindow="852" windowWidth="7956" windowHeight="4872" tabRatio="387"/>
   </bookViews>
   <sheets>
     <sheet name="SFE Registers" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,42 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Kirk</author>
     <author>kjohnso2</author>
   </authors>
   <commentList>
-    <comment ref="E12" authorId="0">
+    <comment ref="Z8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kirk:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+"000" =&gt;  off  
+"001" =&gt;  ADC_Samples  =  2  
+"010" =&gt;  ADC_Samples  =  4  
+"011" =&gt;  ADC_Samples  =  8  
+"100" =&gt;  ADC_Samples  =  16 
+"101" =&gt;  ADC_Samples  =  32 
+"110" =&gt;  ADC_Samples  =  64 
+"111" =&gt;  ADC_Samples  =  128</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -43,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0">
+    <comment ref="E15" authorId="1">
       <text>
         <r>
           <rPr>
@@ -67,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="E18" authorId="1">
       <text>
         <r>
           <rPr>
@@ -91,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E21" authorId="1">
       <text>
         <r>
           <rPr>
@@ -115,62 +147,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>kjohnso2:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"0" = use contant
-"1" = use reg values</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AJ38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>kjohnso2:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-"0" = 60 hertz
-"1" = 9 Hertz</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="127">
   <si>
     <t>Register Name</t>
   </si>
@@ -251,6 +233,306 @@
   </si>
   <si>
     <t>ADC#4</t>
+  </si>
+  <si>
+    <t>LED Mode Control</t>
+  </si>
+  <si>
+    <t># of ADC Conversions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w </t>
+  </si>
+  <si>
+    <t>GPIO32</t>
+  </si>
+  <si>
+    <t>GPIO31</t>
+  </si>
+  <si>
+    <t>GPIO30</t>
+  </si>
+  <si>
+    <t>GPIO29</t>
+  </si>
+  <si>
+    <t>GPIO28</t>
+  </si>
+  <si>
+    <t>GPIO27</t>
+  </si>
+  <si>
+    <t>GPIO26</t>
+  </si>
+  <si>
+    <t>GPIO25</t>
+  </si>
+  <si>
+    <t>GPIO24</t>
+  </si>
+  <si>
+    <t>GPIO23</t>
+  </si>
+  <si>
+    <t>GPIO22</t>
+  </si>
+  <si>
+    <t>GPIO21</t>
+  </si>
+  <si>
+    <t>GPIO20</t>
+  </si>
+  <si>
+    <t>GPIO19</t>
+  </si>
+  <si>
+    <t>GPIO18</t>
+  </si>
+  <si>
+    <t>GPIO17</t>
+  </si>
+  <si>
+    <t>GPIO16</t>
+  </si>
+  <si>
+    <t>GPIO15</t>
+  </si>
+  <si>
+    <t>GPIO14</t>
+  </si>
+  <si>
+    <t>GPIO13</t>
+  </si>
+  <si>
+    <t>GPIO12</t>
+  </si>
+  <si>
+    <t>GPIO11</t>
+  </si>
+  <si>
+    <t>GPIO10</t>
+  </si>
+  <si>
+    <t>GPIO9</t>
+  </si>
+  <si>
+    <t>GPIO8</t>
+  </si>
+  <si>
+    <t>GPIO7</t>
+  </si>
+  <si>
+    <t>GPIO6</t>
+  </si>
+  <si>
+    <t>GPIO5</t>
+  </si>
+  <si>
+    <t>GPIO4</t>
+  </si>
+  <si>
+    <t>GPIO3</t>
+  </si>
+  <si>
+    <t>GPIO2</t>
+  </si>
+  <si>
+    <t>GPIO1</t>
+  </si>
+  <si>
+    <t>GPIO65</t>
+  </si>
+  <si>
+    <t>GPIO64</t>
+  </si>
+  <si>
+    <t>GPIO63</t>
+  </si>
+  <si>
+    <t>GPIO62</t>
+  </si>
+  <si>
+    <t>GPIO61</t>
+  </si>
+  <si>
+    <t>GPIO60</t>
+  </si>
+  <si>
+    <t>GPIO59</t>
+  </si>
+  <si>
+    <t>GPIO58</t>
+  </si>
+  <si>
+    <t>GPIO57</t>
+  </si>
+  <si>
+    <t>GPIO56</t>
+  </si>
+  <si>
+    <t>GPIO55</t>
+  </si>
+  <si>
+    <t>GPIO54</t>
+  </si>
+  <si>
+    <t>GPIO53</t>
+  </si>
+  <si>
+    <t>GPIO52</t>
+  </si>
+  <si>
+    <t>GPIO51</t>
+  </si>
+  <si>
+    <t>GPIO50</t>
+  </si>
+  <si>
+    <t>GPIO49</t>
+  </si>
+  <si>
+    <t>GPIO48</t>
+  </si>
+  <si>
+    <t>GPIO47</t>
+  </si>
+  <si>
+    <t>GPIO46</t>
+  </si>
+  <si>
+    <t>GPIO45</t>
+  </si>
+  <si>
+    <t>GPIO44</t>
+  </si>
+  <si>
+    <t>GPIO43</t>
+  </si>
+  <si>
+    <t>GPIO42</t>
+  </si>
+  <si>
+    <t>GPIO41</t>
+  </si>
+  <si>
+    <t>GPIO40</t>
+  </si>
+  <si>
+    <t>GPIO39</t>
+  </si>
+  <si>
+    <t>GPIO38</t>
+  </si>
+  <si>
+    <t>GPIO37</t>
+  </si>
+  <si>
+    <t>GPIO36</t>
+  </si>
+  <si>
+    <t>GPIO35</t>
+  </si>
+  <si>
+    <t>GPIO34</t>
+  </si>
+  <si>
+    <t>GPIO33</t>
+  </si>
+  <si>
+    <t>GPIO66</t>
+  </si>
+  <si>
+    <t>GPIO80</t>
+  </si>
+  <si>
+    <t>GPIO79</t>
+  </si>
+  <si>
+    <t>GPIO78</t>
+  </si>
+  <si>
+    <t>GPIO77</t>
+  </si>
+  <si>
+    <t>GPIO76</t>
+  </si>
+  <si>
+    <t>GPIO75</t>
+  </si>
+  <si>
+    <t>GPIO74</t>
+  </si>
+  <si>
+    <t>GPIO73</t>
+  </si>
+  <si>
+    <t>GPIO72</t>
+  </si>
+  <si>
+    <t>GPIO71</t>
+  </si>
+  <si>
+    <t>GPIO70</t>
+  </si>
+  <si>
+    <t>GPIO69</t>
+  </si>
+  <si>
+    <t>GPIO68</t>
+  </si>
+  <si>
+    <t>GPIO67</t>
+  </si>
+  <si>
+    <t>GPIO_H1</t>
+  </si>
+  <si>
+    <t>GPIO_H3</t>
+  </si>
+  <si>
+    <t>GPIO_H2</t>
+  </si>
+  <si>
+    <t>GPIO_H10</t>
+  </si>
+  <si>
+    <t>GPIO_H9</t>
+  </si>
+  <si>
+    <t>GPIO_H8</t>
+  </si>
+  <si>
+    <t>GPIO_H7</t>
+  </si>
+  <si>
+    <t>GPIO_H6</t>
+  </si>
+  <si>
+    <t>GPIO_H5</t>
+  </si>
+  <si>
+    <t>GPIO_H4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO_H10 - 1 and GPIO80 - 65 </t>
+  </si>
+  <si>
+    <t>GPIO64 - 33</t>
+  </si>
+  <si>
+    <t>GPIO32 - 1</t>
+  </si>
+  <si>
+    <t>Configuration GPIO32 - 1</t>
+  </si>
+  <si>
+    <t>Configuration GPIO64 - 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration GPIO_H10 - 1 and GPIO80 - 65 </t>
+  </si>
+  <si>
+    <t>1 = output, 0 = input</t>
   </si>
 </sst>
 </file>
@@ -334,20 +616,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +660,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -717,32 +1011,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -825,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -919,13 +1187,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -971,14 +1232,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -990,12 +1243,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,18 +1257,9 @@
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1031,7 +1269,27 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1039,100 +1297,97 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1438,147 +1693,126 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL214"/>
+  <dimension ref="A1:AL211"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32:AJ33"/>
+      <selection pane="bottomLeft" activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="5.5546875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="5.88671875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="5.5546875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="7" customWidth="1"/>
-    <col min="19" max="22" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.5546875" style="7" customWidth="1"/>
-    <col min="24" max="24" width="9.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.44140625" style="7" customWidth="1"/>
-    <col min="33" max="33" width="16.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.5546875" style="7" customWidth="1"/>
-    <col min="35" max="35" width="22" style="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10" style="7" customWidth="1"/>
+    <col min="24" max="36" width="10" style="7" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19" style="10" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="80.33203125" style="7" customWidth="1"/>
     <col min="39" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="70"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="70"/>
+      <c r="AH1" s="70"/>
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
       <c r="AK1" s="11"/>
     </row>
     <row r="2" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="94" t="s">
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="76"/>
+      <c r="AA2" s="76"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="76"/>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="76"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="76"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="84" t="s">
+      <c r="AL2" s="71" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1681,8 +1915,8 @@
       <c r="AJ3" s="4">
         <v>0</v>
       </c>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="85"/>
+      <c r="AK3" s="79"/>
+      <c r="AL3" s="72"/>
     </row>
     <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15"/>
@@ -1724,8 +1958,8 @@
       <c r="AK4" s="13"/>
       <c r="AL4" s="14"/>
     </row>
-    <row r="5" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:38" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="68" t="s">
@@ -1734,89 +1968,89 @@
       <c r="C5" s="68">
         <v>0</v>
       </c>
-      <c r="D5" s="79" t="str">
+      <c r="D5" s="82" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C5*4))</f>
         <v>0x000</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="39"/>
-    </row>
-    <row r="6" spans="1:38" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="63"/>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="63"/>
+      <c r="AD5" s="63"/>
+      <c r="AE5" s="63"/>
+      <c r="AF5" s="63"/>
+      <c r="AG5" s="63"/>
+      <c r="AH5" s="63"/>
+      <c r="AI5" s="63"/>
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="37"/>
+    </row>
+    <row r="6" spans="1:38" s="38" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="81"/>
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AJ6" s="78"/>
-      <c r="AK6" s="41" t="str">
+      <c r="D6" s="83"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="66"/>
+      <c r="AH6" s="66"/>
+      <c r="AI6" s="66"/>
+      <c r="AJ6" s="67"/>
+      <c r="AK6" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E6&amp;F6&amp;G6&amp;H6)&amp;BIN2HEX(I6&amp;J6&amp;K6&amp;L6)&amp;BIN2HEX(M6&amp;N6&amp;O6&amp;P6)&amp;BIN2HEX(Q6&amp;R6&amp;S6&amp;T6)&amp;BIN2HEX(U6&amp;V6&amp;W6&amp;X6)&amp;BIN2HEX(Y6&amp;Z6&amp;AA6&amp;AB6)&amp;BIN2HEX(AC6&amp;AD6&amp;AE6&amp;AF6)&amp;BIN2HEX(AG6&amp;AH6&amp;AI6&amp;AJ6))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL6" s="42"/>
+      <c r="AL6" s="40"/>
     </row>
     <row r="7" spans="1:38" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
@@ -1859,182 +2093,186 @@
       <c r="AL7" s="25"/>
     </row>
     <row r="8" spans="1:38" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="60">
         <v>1</v>
       </c>
-      <c r="D8" s="64" t="str">
+      <c r="D8" s="60" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C8*4))</f>
         <v>0x004</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="55"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="48"/>
+      <c r="Z8" s="88" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="89"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="84" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="48"/>
+      <c r="AH8" s="48"/>
+      <c r="AI8" s="48"/>
+      <c r="AJ8" s="49"/>
       <c r="AK8" s="28"/>
       <c r="AL8" s="29"/>
     </row>
-    <row r="9" spans="1:38" s="27" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="49"/>
-      <c r="AK9" s="41" t="str">
+    <row r="9" spans="1:38" s="27" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="59"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="46"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E9&amp;F9&amp;G9&amp;H9)&amp;BIN2HEX(I9&amp;J9&amp;K9&amp;L9)&amp;BIN2HEX(M9&amp;N9&amp;O9&amp;P9)&amp;BIN2HEX(Q9&amp;R9&amp;S9&amp;T9)&amp;BIN2HEX(U9&amp;V9&amp;W9&amp;X9)&amp;BIN2HEX(Y9&amp;Z9&amp;AA9&amp;AB9)&amp;BIN2HEX(AC9&amp;AD9&amp;AE9&amp;AF9)&amp;BIN2HEX(AG9&amp;AH9&amp;AI9&amp;AJ9))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL9" s="56" t="s">
+      <c r="AL9" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:38" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="60">
         <v>2</v>
       </c>
-      <c r="D11" s="64" t="str">
+      <c r="D11" s="60" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C11*4))</f>
         <v>0x008</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="66" t="s">
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
-      <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="67"/>
-      <c r="AI11" s="67"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="38"/>
-      <c r="AL11" s="39"/>
-    </row>
-    <row r="12" spans="1:38" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="57">
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="37"/>
+    </row>
+    <row r="12" spans="1:38" s="38" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="59"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="51">
         <v>0</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="43">
-        <v>0</v>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="41" t="s">
+        <v>29</v>
       </c>
       <c r="Z12" s="18">
         <v>0</v>
@@ -2069,11 +2307,11 @@
       <c r="AJ12" s="19">
         <v>0</v>
       </c>
-      <c r="AK12" s="41" t="str">
+      <c r="AK12" s="39" t="e">
         <f>CONCATENATE("0x",BIN2HEX(E12&amp;F12&amp;G12&amp;H12)&amp;BIN2HEX(I12&amp;J12&amp;K12&amp;L12)&amp;BIN2HEX(M12&amp;N12&amp;O12&amp;P12)&amp;BIN2HEX(Q12&amp;R12&amp;S12&amp;T12)&amp;BIN2HEX(U12&amp;V12&amp;W12&amp;X12)&amp;BIN2HEX(Y12&amp;Z12&amp;AA12&amp;AB12)&amp;BIN2HEX(AC12&amp;AD12&amp;AE12&amp;AF12)&amp;BIN2HEX(AG12&amp;AH12&amp;AI12&amp;AJ12))</f>
-        <v>0x00000000</v>
-      </c>
-      <c r="AL12" s="42"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="AL12" s="40"/>
     </row>
     <row r="13" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="15"/>
@@ -2112,90 +2350,90 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="12"/>
-      <c r="AK13" s="45"/>
-      <c r="AL13" s="46"/>
-    </row>
-    <row r="14" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="86" t="s">
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="44"/>
+    </row>
+    <row r="14" spans="1:38" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="60">
         <v>3</v>
       </c>
-      <c r="D14" s="64" t="str">
+      <c r="D14" s="60" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C14*4))</f>
         <v>0x00C</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="66" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="67"/>
-      <c r="AI14" s="67"/>
-      <c r="AJ14" s="72"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="39"/>
-    </row>
-    <row r="15" spans="1:38" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="57">
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="37"/>
+    </row>
+    <row r="15" spans="1:38" s="38" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="59"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="51">
         <v>0</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="43">
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="41">
         <v>0</v>
       </c>
       <c r="Z15" s="18">
@@ -2231,11 +2469,11 @@
       <c r="AJ15" s="19">
         <v>0</v>
       </c>
-      <c r="AK15" s="41" t="str">
+      <c r="AK15" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E15&amp;F15&amp;G15&amp;H15)&amp;BIN2HEX(I15&amp;J15&amp;K15&amp;L15)&amp;BIN2HEX(M15&amp;N15&amp;O15&amp;P15)&amp;BIN2HEX(Q15&amp;R15&amp;S15&amp;T15)&amp;BIN2HEX(U15&amp;V15&amp;W15&amp;X15)&amp;BIN2HEX(Y15&amp;Z15&amp;AA15&amp;AB15)&amp;BIN2HEX(AC15&amp;AD15&amp;AE15&amp;AF15)&amp;BIN2HEX(AG15&amp;AH15&amp;AI15&amp;AJ15))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL15" s="42"/>
+      <c r="AL15" s="40"/>
     </row>
     <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15"/>
@@ -2274,90 +2512,90 @@
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
       <c r="AJ16" s="12"/>
-      <c r="AK16" s="45"/>
-      <c r="AL16" s="46"/>
-    </row>
-    <row r="17" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="44"/>
+    </row>
+    <row r="17" spans="1:38" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="64">
+      <c r="C17" s="60">
         <v>4</v>
       </c>
-      <c r="D17" s="64" t="str">
+      <c r="D17" s="60" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C17*4))</f>
         <v>0x0010</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="62"/>
-      <c r="Y17" s="66" t="s">
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="30"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="Z17" s="67"/>
-      <c r="AA17" s="67"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
-      <c r="AG17" s="67"/>
-      <c r="AH17" s="67"/>
-      <c r="AI17" s="67"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="39"/>
-    </row>
-    <row r="18" spans="1:38" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="57">
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="37"/>
+    </row>
+    <row r="18" spans="1:38" s="38" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="59"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="51">
         <v>0</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="43">
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="41">
         <v>0</v>
       </c>
       <c r="Z18" s="18">
@@ -2393,11 +2631,11 @@
       <c r="AJ18" s="19">
         <v>0</v>
       </c>
-      <c r="AK18" s="41" t="str">
+      <c r="AK18" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E18&amp;F18&amp;G18&amp;H18)&amp;BIN2HEX(I18&amp;J18&amp;K18&amp;L18)&amp;BIN2HEX(M18&amp;N18&amp;O18&amp;P18)&amp;BIN2HEX(Q18&amp;R18&amp;S18&amp;T18)&amp;BIN2HEX(U18&amp;V18&amp;W18&amp;X18)&amp;BIN2HEX(Y18&amp;Z18&amp;AA18&amp;AB18)&amp;BIN2HEX(AC18&amp;AD18&amp;AE18&amp;AF18)&amp;BIN2HEX(AG18&amp;AH18&amp;AI18&amp;AJ18))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL18" s="42"/>
+      <c r="AL18" s="40"/>
     </row>
     <row r="19" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15"/>
@@ -2436,90 +2674,90 @@
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="12"/>
-      <c r="AK19" s="45"/>
-      <c r="AL19" s="46"/>
-    </row>
-    <row r="20" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="86" t="s">
+      <c r="AK19" s="43"/>
+      <c r="AL19" s="44"/>
+    </row>
+    <row r="20" spans="1:38" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="60">
         <v>5</v>
       </c>
-      <c r="D20" s="64" t="str">
+      <c r="D20" s="60" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C20*4))</f>
         <v>0x0014</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="66" t="s">
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+      <c r="V20" s="30"/>
+      <c r="W20" s="30"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="Z20" s="67"/>
-      <c r="AA20" s="67"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
-      <c r="AG20" s="67"/>
-      <c r="AH20" s="67"/>
-      <c r="AI20" s="67"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="39"/>
-    </row>
-    <row r="21" spans="1:38" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="57">
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="37"/>
+    </row>
+    <row r="21" spans="1:38" s="38" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="51">
         <v>0</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="43">
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="41">
         <v>0</v>
       </c>
       <c r="Z21" s="18">
@@ -2555,11 +2793,11 @@
       <c r="AJ21" s="19">
         <v>0</v>
       </c>
-      <c r="AK21" s="41" t="str">
+      <c r="AK21" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E21&amp;F21&amp;G21&amp;H21)&amp;BIN2HEX(I21&amp;J21&amp;K21&amp;L21)&amp;BIN2HEX(M21&amp;N21&amp;O21&amp;P21)&amp;BIN2HEX(Q21&amp;R21&amp;S21&amp;T21)&amp;BIN2HEX(U21&amp;V21&amp;W21&amp;X21)&amp;BIN2HEX(Y21&amp;Z21&amp;AA21&amp;AB21)&amp;BIN2HEX(AC21&amp;AD21&amp;AE21&amp;AF21)&amp;BIN2HEX(AG21&amp;AH21&amp;AI21&amp;AJ21))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL21" s="42"/>
+      <c r="AL21" s="40"/>
     </row>
     <row r="22" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15"/>
@@ -2598,100 +2836,100 @@
       <c r="AH22" s="12"/>
       <c r="AI22" s="12"/>
       <c r="AJ22" s="12"/>
-      <c r="AK22" s="45"/>
-      <c r="AL22" s="46"/>
-    </row>
-    <row r="23" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="44"/>
+    </row>
+    <row r="23" spans="1:38" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="60">
         <v>6</v>
       </c>
-      <c r="D23" s="64" t="str">
+      <c r="D23" s="60" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C23*4))</f>
         <v>0x0018</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="74"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="74"/>
-      <c r="AG23" s="74"/>
-      <c r="AH23" s="74"/>
-      <c r="AI23" s="74"/>
-      <c r="AJ23" s="75"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="39"/>
-    </row>
-    <row r="24" spans="1:38" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
-      <c r="AD24" s="77"/>
-      <c r="AE24" s="77"/>
-      <c r="AF24" s="77"/>
-      <c r="AG24" s="77"/>
-      <c r="AH24" s="77"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="78"/>
-      <c r="AK24" s="41" t="str">
+      <c r="E23" s="62"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="37"/>
+    </row>
+    <row r="24" spans="1:38" s="38" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="59"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="66"/>
+      <c r="AC24" s="66"/>
+      <c r="AD24" s="66"/>
+      <c r="AE24" s="66"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="67"/>
+      <c r="AK24" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E24&amp;F24&amp;G24&amp;H24)&amp;BIN2HEX(I24&amp;J24&amp;K24&amp;L24)&amp;BIN2HEX(M24&amp;N24&amp;O24&amp;P24)&amp;BIN2HEX(Q24&amp;R24&amp;S24&amp;T24)&amp;BIN2HEX(U24&amp;V24&amp;W24&amp;X24)&amp;BIN2HEX(Y24&amp;Z24&amp;AA24&amp;AB24)&amp;BIN2HEX(AC24&amp;AD24&amp;AE24&amp;AF24)&amp;BIN2HEX(AG24&amp;AH24&amp;AI24&amp;AJ24))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL24" s="42"/>
+      <c r="AL24" s="40"/>
     </row>
     <row r="25" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="15"/>
@@ -2730,100 +2968,100 @@
       <c r="AH25" s="12"/>
       <c r="AI25" s="12"/>
       <c r="AJ25" s="12"/>
-      <c r="AK25" s="45"/>
-      <c r="AL25" s="46"/>
-    </row>
-    <row r="26" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="44"/>
+    </row>
+    <row r="26" spans="1:38" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="64">
+      <c r="C26" s="60">
         <v>7</v>
       </c>
-      <c r="D26" s="64" t="str">
+      <c r="D26" s="60" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C26*4))</f>
         <v>0x001C</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="38"/>
-      <c r="AL26" s="39"/>
-    </row>
-    <row r="27" spans="1:38" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="77"/>
-      <c r="S27" s="77"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
-      <c r="AA27" s="77"/>
-      <c r="AB27" s="77"/>
-      <c r="AC27" s="77"/>
-      <c r="AD27" s="77"/>
-      <c r="AE27" s="77"/>
-      <c r="AF27" s="77"/>
-      <c r="AG27" s="77"/>
-      <c r="AH27" s="77"/>
-      <c r="AI27" s="77"/>
-      <c r="AJ27" s="78"/>
-      <c r="AK27" s="41" t="str">
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="37"/>
+    </row>
+    <row r="27" spans="1:38" s="38" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="59"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="AD27" s="66"/>
+      <c r="AE27" s="66"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="67"/>
+      <c r="AK27" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E27&amp;F27&amp;G27&amp;H27)&amp;BIN2HEX(I27&amp;J27&amp;K27&amp;L27)&amp;BIN2HEX(M27&amp;N27&amp;O27&amp;P27)&amp;BIN2HEX(Q27&amp;R27&amp;S27&amp;T27)&amp;BIN2HEX(U27&amp;V27&amp;W27&amp;X27)&amp;BIN2HEX(Y27&amp;Z27&amp;AA27&amp;AB27)&amp;BIN2HEX(AC27&amp;AD27&amp;AE27&amp;AF27)&amp;BIN2HEX(AG27&amp;AH27&amp;AI27&amp;AJ27))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL27" s="42"/>
+      <c r="AL27" s="40"/>
     </row>
     <row r="28" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15"/>
@@ -2862,100 +3100,100 @@
       <c r="AH28" s="12"/>
       <c r="AI28" s="12"/>
       <c r="AJ28" s="12"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="46"/>
-    </row>
-    <row r="29" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="86" t="s">
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="44"/>
+    </row>
+    <row r="29" spans="1:38" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="64">
+      <c r="C29" s="60">
         <v>8</v>
       </c>
-      <c r="D29" s="64" t="str">
+      <c r="D29" s="60" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C29*4))</f>
         <v>0x0020</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="74"/>
-      <c r="AG29" s="74"/>
-      <c r="AH29" s="74"/>
-      <c r="AI29" s="74"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="38"/>
-      <c r="AL29" s="39"/>
-    </row>
-    <row r="30" spans="1:38" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="77"/>
-      <c r="W30" s="77"/>
-      <c r="X30" s="77"/>
-      <c r="Y30" s="77"/>
-      <c r="Z30" s="77"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
-      <c r="AG30" s="77"/>
-      <c r="AH30" s="77"/>
-      <c r="AI30" s="77"/>
-      <c r="AJ30" s="78"/>
-      <c r="AK30" s="41" t="str">
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="64"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="37"/>
+    </row>
+    <row r="30" spans="1:38" s="38" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="59"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="67"/>
+      <c r="AK30" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E30&amp;F30&amp;G30&amp;H30)&amp;BIN2HEX(I30&amp;J30&amp;K30&amp;L30)&amp;BIN2HEX(M30&amp;N30&amp;O30&amp;P30)&amp;BIN2HEX(Q30&amp;R30&amp;S30&amp;T30)&amp;BIN2HEX(U30&amp;V30&amp;W30&amp;X30)&amp;BIN2HEX(Y30&amp;Z30&amp;AA30&amp;AB30)&amp;BIN2HEX(AC30&amp;AD30&amp;AE30&amp;AF30)&amp;BIN2HEX(AG30&amp;AH30&amp;AI30&amp;AJ30))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL30" s="42"/>
+      <c r="AL30" s="40"/>
     </row>
     <row r="31" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
@@ -2994,100 +3232,100 @@
       <c r="AH31" s="12"/>
       <c r="AI31" s="12"/>
       <c r="AJ31" s="12"/>
-      <c r="AK31" s="45"/>
-      <c r="AL31" s="46"/>
-    </row>
-    <row r="32" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="AK31" s="43"/>
+      <c r="AL31" s="44"/>
+    </row>
+    <row r="32" spans="1:38" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="60">
         <v>9</v>
       </c>
-      <c r="D32" s="64" t="str">
+      <c r="D32" s="60" t="str">
         <f>CONCATENATE("0x00",DEC2HEX( $C32*4))</f>
         <v>0x0024</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="74"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="74"/>
-      <c r="Q32" s="74"/>
-      <c r="R32" s="74"/>
-      <c r="S32" s="74"/>
-      <c r="T32" s="74"/>
-      <c r="U32" s="74"/>
-      <c r="V32" s="74"/>
-      <c r="W32" s="74"/>
-      <c r="X32" s="74"/>
-      <c r="Y32" s="74"/>
-      <c r="Z32" s="74"/>
-      <c r="AA32" s="74"/>
-      <c r="AB32" s="74"/>
-      <c r="AC32" s="74"/>
-      <c r="AD32" s="74"/>
-      <c r="AE32" s="74"/>
-      <c r="AF32" s="74"/>
-      <c r="AG32" s="74"/>
-      <c r="AH32" s="74"/>
-      <c r="AI32" s="74"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="39"/>
-    </row>
-    <row r="33" spans="1:38" s="40" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="77"/>
-      <c r="Q33" s="77"/>
-      <c r="R33" s="77"/>
-      <c r="S33" s="77"/>
-      <c r="T33" s="77"/>
-      <c r="U33" s="77"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="77"/>
-      <c r="X33" s="77"/>
-      <c r="Y33" s="77"/>
-      <c r="Z33" s="77"/>
-      <c r="AA33" s="77"/>
-      <c r="AB33" s="77"/>
-      <c r="AC33" s="77"/>
-      <c r="AD33" s="77"/>
-      <c r="AE33" s="77"/>
-      <c r="AF33" s="77"/>
-      <c r="AG33" s="77"/>
-      <c r="AH33" s="77"/>
-      <c r="AI33" s="77"/>
-      <c r="AJ33" s="78"/>
-      <c r="AK33" s="41" t="str">
+      <c r="E32" s="62"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="64"/>
+      <c r="AK32" s="36"/>
+      <c r="AL32" s="37"/>
+    </row>
+    <row r="33" spans="1:38" s="38" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="59"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="67"/>
+      <c r="AK33" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E33&amp;F33&amp;G33&amp;H33)&amp;BIN2HEX(I33&amp;J33&amp;K33&amp;L33)&amp;BIN2HEX(M33&amp;N33&amp;O33&amp;P33)&amp;BIN2HEX(Q33&amp;R33&amp;S33&amp;T33)&amp;BIN2HEX(U33&amp;V33&amp;W33&amp;X33)&amp;BIN2HEX(Y33&amp;Z33&amp;AA33&amp;AB33)&amp;BIN2HEX(AC33&amp;AD33&amp;AE33&amp;AF33)&amp;BIN2HEX(AG33&amp;AH33&amp;AI33&amp;AJ33))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL33" s="42"/>
+      <c r="AL33" s="40"/>
     </row>
     <row r="34" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15"/>
@@ -3126,91 +3364,166 @@
       <c r="AH34" s="12"/>
       <c r="AI34" s="12"/>
       <c r="AJ34" s="12"/>
-      <c r="AK34" s="45"/>
-      <c r="AL34" s="46"/>
-    </row>
-    <row r="35" spans="1:38" s="40" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="70"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="83"/>
-      <c r="U35" s="81"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="82"/>
-      <c r="AA35" s="82"/>
-      <c r="AB35" s="82"/>
-      <c r="AC35" s="82"/>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="82"/>
-      <c r="AF35" s="82"/>
-      <c r="AG35" s="82"/>
-      <c r="AH35" s="82"/>
-      <c r="AI35" s="82"/>
-      <c r="AJ35" s="83"/>
-      <c r="AK35" s="52"/>
-      <c r="AL35" s="39"/>
-    </row>
-    <row r="36" spans="1:38" s="40" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="61"/>
-      <c r="U36" s="59"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="61"/>
-      <c r="AK36" s="53" t="str">
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="44"/>
+    </row>
+    <row r="35" spans="1:38" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="60">
+        <v>10</v>
+      </c>
+      <c r="D35" s="60" t="str">
+        <f>CONCATENATE("0x00",DEC2HEX( $C35*4))</f>
+        <v>0x0028</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q35" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="R35" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="S35" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="T35" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="V35" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="W35" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="X35" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y35" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z35" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA35" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB35" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC35" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD35" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE35" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF35" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG35" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH35" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI35" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ35" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="29"/>
+    </row>
+    <row r="36" spans="1:38" s="27" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="59"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="46"/>
+      <c r="AH36" s="46"/>
+      <c r="AI36" s="46"/>
+      <c r="AJ36" s="46"/>
+      <c r="AK36" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E36&amp;F36&amp;G36&amp;H36)&amp;BIN2HEX(I36&amp;J36&amp;K36&amp;L36)&amp;BIN2HEX(M36&amp;N36&amp;O36&amp;P36)&amp;BIN2HEX(Q36&amp;R36&amp;S36&amp;T36)&amp;BIN2HEX(U36&amp;V36&amp;W36&amp;X36)&amp;BIN2HEX(Y36&amp;Z36&amp;AA36&amp;AB36)&amp;BIN2HEX(AC36&amp;AD36&amp;AE36&amp;AF36)&amp;BIN2HEX(AG36&amp;AH36&amp;AI36&amp;AJ36))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL36" s="42"/>
+      <c r="AL36" s="50" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15"/>
@@ -3249,581 +3562,1337 @@
       <c r="AH37" s="12"/>
       <c r="AI37" s="12"/>
       <c r="AJ37" s="12"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="46"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="44"/>
     </row>
     <row r="38" spans="1:38" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="82"/>
-      <c r="L38" s="82"/>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="82"/>
-      <c r="P38" s="82"/>
-      <c r="Q38" s="82"/>
-      <c r="R38" s="82"/>
-      <c r="S38" s="82"/>
-      <c r="T38" s="83"/>
-      <c r="U38" s="81"/>
-      <c r="V38" s="82"/>
-      <c r="W38" s="82"/>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="82"/>
-      <c r="Z38" s="82"/>
-      <c r="AA38" s="82"/>
-      <c r="AB38" s="82"/>
-      <c r="AC38" s="82"/>
-      <c r="AD38" s="82"/>
-      <c r="AE38" s="82"/>
-      <c r="AF38" s="82"/>
-      <c r="AG38" s="82"/>
-      <c r="AH38" s="82"/>
-      <c r="AI38" s="82"/>
-      <c r="AJ38" s="83"/>
+      <c r="A38" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="60">
+        <v>11</v>
+      </c>
+      <c r="D38" s="60" t="str">
+        <f>CONCATENATE("0x00",DEC2HEX( $C38*4))</f>
+        <v>0x002C</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I38" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="M38" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="N38" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="O38" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q38" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="R38" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="S38" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="T38" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="U38" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="V38" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="W38" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="X38" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y38" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z38" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA38" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB38" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC38" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD38" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE38" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF38" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG38" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH38" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI38" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ38" s="48" t="s">
+        <v>94</v>
+      </c>
       <c r="AK38" s="28"/>
       <c r="AL38" s="29"/>
     </row>
     <row r="39" spans="1:38" s="27" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="60"/>
-      <c r="T39" s="61"/>
-      <c r="U39" s="59"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="60"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="60"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="60"/>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="60"/>
-      <c r="AI39" s="60"/>
-      <c r="AJ39" s="61"/>
-      <c r="AK39" s="30" t="str">
+      <c r="A39" s="59"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46"/>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="46"/>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="46"/>
+      <c r="AI39" s="46"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="39" t="str">
         <f>CONCATENATE("0x",BIN2HEX(E39&amp;F39&amp;G39&amp;H39)&amp;BIN2HEX(I39&amp;J39&amp;K39&amp;L39)&amp;BIN2HEX(M39&amp;N39&amp;O39&amp;P39)&amp;BIN2HEX(Q39&amp;R39&amp;S39&amp;T39)&amp;BIN2HEX(U39&amp;V39&amp;W39&amp;X39)&amp;BIN2HEX(Y39&amp;Z39&amp;AA39&amp;AB39)&amp;BIN2HEX(AC39&amp;AD39&amp;AE39&amp;AF39)&amp;BIN2HEX(AG39&amp;AH39&amp;AI39&amp;AJ39))</f>
         <v>0x00000000</v>
       </c>
-      <c r="AL39" s="31"/>
-    </row>
-    <row r="40" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-      <c r="N40" s="23"/>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="23"/>
-      <c r="T40" s="23"/>
-      <c r="U40" s="23"/>
-      <c r="V40" s="23"/>
-      <c r="W40" s="23"/>
-      <c r="X40" s="23"/>
-      <c r="Y40" s="23"/>
-      <c r="Z40" s="23"/>
-      <c r="AA40" s="23"/>
-      <c r="AB40" s="23"/>
-      <c r="AC40" s="23"/>
-      <c r="AD40" s="23"/>
-      <c r="AE40" s="23"/>
-      <c r="AF40" s="23"/>
-      <c r="AG40" s="23"/>
-      <c r="AH40" s="23"/>
-      <c r="AI40" s="23"/>
-      <c r="AJ40" s="23"/>
-      <c r="AK40" s="47"/>
-      <c r="AL40" s="48"/>
-    </row>
-    <row r="41" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="AK41" s="35"/>
-    </row>
-    <row r="42" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="AK42" s="35"/>
-    </row>
-    <row r="43" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="AK43" s="35"/>
-    </row>
-    <row r="44" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="AK44" s="35"/>
-    </row>
-    <row r="45" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="AK45" s="35"/>
-    </row>
-    <row r="46" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="AK46" s="35"/>
-    </row>
-    <row r="47" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="AK47" s="35"/>
-    </row>
-    <row r="48" spans="1:38" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="AK48" s="35"/>
-    </row>
-    <row r="49" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="AK49" s="35"/>
-    </row>
-    <row r="50" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="AK50" s="35"/>
-    </row>
-    <row r="51" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="AK51" s="35"/>
-    </row>
-    <row r="52" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="AK52" s="35"/>
-    </row>
-    <row r="53" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="AK53" s="35"/>
-    </row>
-    <row r="54" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="AK54" s="35"/>
-    </row>
-    <row r="55" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="AK55" s="35"/>
-    </row>
-    <row r="56" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="AK56" s="35"/>
-    </row>
-    <row r="57" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="AK57" s="35"/>
-    </row>
-    <row r="58" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="AK58" s="35"/>
-    </row>
-    <row r="59" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="AK59" s="35"/>
-    </row>
-    <row r="60" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="AK60" s="35"/>
-    </row>
-    <row r="61" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="AK61" s="35"/>
-    </row>
-    <row r="62" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="AK62" s="35"/>
-    </row>
-    <row r="63" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="AK63" s="35"/>
-    </row>
-    <row r="64" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="AK64" s="35"/>
-    </row>
-    <row r="65" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="AK65" s="35"/>
-    </row>
-    <row r="66" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="AK66" s="35"/>
-    </row>
-    <row r="67" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="AK67" s="35"/>
-    </row>
-    <row r="68" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="AK68" s="35"/>
-    </row>
-    <row r="69" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="AK69" s="35"/>
-    </row>
-    <row r="70" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="AK70" s="35"/>
-    </row>
-    <row r="71" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="AK71" s="35"/>
-    </row>
-    <row r="72" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="AK72" s="35"/>
-    </row>
-    <row r="73" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="AK73" s="35"/>
-    </row>
-    <row r="74" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="AK74" s="35"/>
-    </row>
-    <row r="75" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="AK75" s="35"/>
-    </row>
-    <row r="76" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="AK76" s="35"/>
-    </row>
-    <row r="77" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="AK77" s="35"/>
-    </row>
-    <row r="78" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="AK78" s="35"/>
-    </row>
-    <row r="79" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="AK79" s="35"/>
-    </row>
-    <row r="80" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="AK80" s="35"/>
-    </row>
-    <row r="81" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="AK81" s="35"/>
-    </row>
-    <row r="82" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="AK82" s="35"/>
-    </row>
-    <row r="83" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="AK83" s="35"/>
-    </row>
-    <row r="84" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="AK84" s="35"/>
-    </row>
-    <row r="85" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="AK85" s="35"/>
-    </row>
-    <row r="86" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="AK86" s="35"/>
-    </row>
-    <row r="87" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="AK87" s="35"/>
-    </row>
-    <row r="88" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="AK88" s="35"/>
-    </row>
-    <row r="89" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="AK89" s="35"/>
-    </row>
-    <row r="90" spans="3:37" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="AK90" s="35"/>
-    </row>
-    <row r="91" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="36"/>
-      <c r="D91" s="36"/>
-      <c r="AK91" s="36"/>
-    </row>
-    <row r="92" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="AK92" s="36"/>
-    </row>
-    <row r="93" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="36"/>
-      <c r="D93" s="36"/>
-      <c r="AK93" s="36"/>
-    </row>
-    <row r="94" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="36"/>
-      <c r="D94" s="36"/>
-      <c r="AK94" s="36"/>
-    </row>
-    <row r="95" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C95" s="36"/>
-      <c r="D95" s="36"/>
-      <c r="AK95" s="36"/>
-    </row>
-    <row r="96" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="AK96" s="36"/>
-    </row>
-    <row r="97" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="36"/>
-      <c r="D97" s="36"/>
-      <c r="AK97" s="36"/>
-    </row>
-    <row r="98" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C98" s="36"/>
-      <c r="D98" s="36"/>
-      <c r="AK98" s="36"/>
-    </row>
-    <row r="99" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C99" s="36"/>
-      <c r="D99" s="36"/>
-      <c r="AK99" s="36"/>
-    </row>
-    <row r="100" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="36"/>
-      <c r="D100" s="36"/>
-      <c r="AK100" s="36"/>
-    </row>
-    <row r="101" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C101" s="36"/>
-      <c r="D101" s="36"/>
-      <c r="AK101" s="36"/>
-    </row>
-    <row r="102" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="36"/>
-      <c r="D102" s="36"/>
-      <c r="AK102" s="36"/>
-    </row>
-    <row r="103" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="AK103" s="36"/>
-    </row>
-    <row r="104" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="AK104" s="36"/>
-    </row>
-    <row r="105" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="36"/>
-      <c r="D105" s="36"/>
-      <c r="AK105" s="36"/>
-    </row>
-    <row r="106" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="AK106" s="36"/>
-    </row>
-    <row r="107" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C107" s="36"/>
-      <c r="D107" s="36"/>
-      <c r="AK107" s="36"/>
-    </row>
-    <row r="108" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C108" s="36"/>
-      <c r="D108" s="36"/>
-      <c r="AK108" s="36"/>
-    </row>
-    <row r="109" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="AK109" s="36"/>
-    </row>
-    <row r="110" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="36"/>
-      <c r="D110" s="36"/>
-      <c r="AK110" s="36"/>
-    </row>
-    <row r="111" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="36"/>
-      <c r="D111" s="36"/>
-      <c r="AK111" s="36"/>
-    </row>
-    <row r="112" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C112" s="36"/>
-      <c r="D112" s="36"/>
-      <c r="AK112" s="36"/>
-    </row>
-    <row r="113" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="AK113" s="36"/>
-    </row>
-    <row r="114" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C114" s="36"/>
-      <c r="D114" s="36"/>
-      <c r="AK114" s="36"/>
-    </row>
-    <row r="115" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C115" s="36"/>
-      <c r="D115" s="36"/>
-      <c r="AK115" s="36"/>
-    </row>
-    <row r="116" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="36"/>
-      <c r="D116" s="36"/>
-      <c r="AK116" s="36"/>
-    </row>
-    <row r="117" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C117" s="36"/>
-      <c r="D117" s="36"/>
-      <c r="AK117" s="36"/>
-    </row>
-    <row r="118" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="36"/>
-      <c r="D118" s="36"/>
-      <c r="AK118" s="36"/>
-    </row>
-    <row r="119" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
-      <c r="AK119" s="36"/>
-    </row>
-    <row r="120" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="36"/>
-      <c r="D120" s="36"/>
-      <c r="AK120" s="36"/>
-    </row>
-    <row r="121" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="AK121" s="36"/>
-    </row>
-    <row r="122" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="AK122" s="36"/>
-    </row>
-    <row r="123" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C123" s="36"/>
-      <c r="D123" s="36"/>
-      <c r="AK123" s="36"/>
-    </row>
-    <row r="124" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C124" s="36"/>
-      <c r="D124" s="36"/>
-      <c r="AK124" s="36"/>
-    </row>
-    <row r="125" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C125" s="36"/>
-      <c r="D125" s="36"/>
-      <c r="AK125" s="36"/>
-    </row>
-    <row r="126" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C126" s="36"/>
-      <c r="D126" s="36"/>
-      <c r="AK126" s="36"/>
-    </row>
-    <row r="127" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C127" s="36"/>
-      <c r="D127" s="36"/>
-      <c r="AK127" s="36"/>
-    </row>
-    <row r="128" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C128" s="36"/>
-      <c r="D128" s="36"/>
-      <c r="AK128" s="36"/>
-    </row>
-    <row r="129" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C129" s="36"/>
-      <c r="D129" s="36"/>
-      <c r="AK129" s="36"/>
-    </row>
-    <row r="130" spans="3:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C130" s="36"/>
-      <c r="D130" s="36"/>
-      <c r="AK130" s="36"/>
+      <c r="AL39" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="44"/>
+    </row>
+    <row r="41" spans="1:38" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="60">
+        <v>12</v>
+      </c>
+      <c r="D41" s="60" t="str">
+        <f t="shared" ref="D41:D51" si="0">CONCATENATE("0x00",DEC2HEX( $C41*4))</f>
+        <v>0x0030</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="M41" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="N41" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="O41" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="P41" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q41" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R41" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="S41" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="T41" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="U41" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="V41" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="W41" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="X41" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y41" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA41" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB41" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC41" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD41" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE41" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF41" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG41" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH41" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI41" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ41" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK41" s="28"/>
+      <c r="AL41" s="29"/>
+    </row>
+    <row r="42" spans="1:38" s="27" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="59"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46"/>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="46"/>
+      <c r="AJ42" s="46"/>
+      <c r="AK42" s="39" t="str">
+        <f t="shared" ref="AK42" si="1">CONCATENATE("0x",BIN2HEX(E42&amp;F42&amp;G42&amp;H42)&amp;BIN2HEX(I42&amp;J42&amp;K42&amp;L42)&amp;BIN2HEX(M42&amp;N42&amp;O42&amp;P42)&amp;BIN2HEX(Q42&amp;R42&amp;S42&amp;T42)&amp;BIN2HEX(U42&amp;V42&amp;W42&amp;X42)&amp;BIN2HEX(Y42&amp;Z42&amp;AA42&amp;AB42)&amp;BIN2HEX(AC42&amp;AD42&amp;AE42&amp;AF42)&amp;BIN2HEX(AG42&amp;AH42&amp;AI42&amp;AJ42))</f>
+        <v>0x00000000</v>
+      </c>
+      <c r="AL42" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="15"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="44"/>
+    </row>
+    <row r="44" spans="1:38" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="60">
+        <v>13</v>
+      </c>
+      <c r="D44" s="60" t="str">
+        <f t="shared" ref="D44:D51" si="2">CONCATENATE("0x00",DEC2HEX( $C44*4))</f>
+        <v>0x0034</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="O44" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P44" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q44" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="S44" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="T44" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="V44" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="W44" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="X44" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y44" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z44" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA44" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB44" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC44" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD44" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE44" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF44" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG44" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH44" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI44" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ44" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" s="27" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="59"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="46"/>
+      <c r="AB45" s="46"/>
+      <c r="AC45" s="46"/>
+      <c r="AD45" s="46"/>
+      <c r="AE45" s="46"/>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="46"/>
+      <c r="AH45" s="46"/>
+      <c r="AI45" s="46"/>
+      <c r="AJ45" s="46"/>
+      <c r="AK45" s="39" t="str">
+        <f t="shared" ref="AK45" si="3">CONCATENATE("0x",BIN2HEX(E45&amp;F45&amp;G45&amp;H45)&amp;BIN2HEX(I45&amp;J45&amp;K45&amp;L45)&amp;BIN2HEX(M45&amp;N45&amp;O45&amp;P45)&amp;BIN2HEX(Q45&amp;R45&amp;S45&amp;T45)&amp;BIN2HEX(U45&amp;V45&amp;W45&amp;X45)&amp;BIN2HEX(Y45&amp;Z45&amp;AA45&amp;AB45)&amp;BIN2HEX(AC45&amp;AD45&amp;AE45&amp;AF45)&amp;BIN2HEX(AG45&amp;AH45&amp;AI45&amp;AJ45))</f>
+        <v>0x00000000</v>
+      </c>
+      <c r="AL45" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="43"/>
+      <c r="AL46" s="44"/>
+    </row>
+    <row r="47" spans="1:38" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="60">
+        <v>14</v>
+      </c>
+      <c r="D47" s="60" t="str">
+        <f t="shared" ref="D47:D51" si="4">CONCATENATE("0x00",DEC2HEX( $C47*4))</f>
+        <v>0x0038</v>
+      </c>
+      <c r="E47" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="M47" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="N47" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="O47" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q47" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="R47" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="S47" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="T47" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="U47" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="V47" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="W47" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="X47" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y47" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z47" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA47" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB47" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC47" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD47" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE47" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF47" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG47" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH47" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI47" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ47" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK47" s="28"/>
+      <c r="AL47" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" s="27" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="59"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AE48" s="46"/>
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="46"/>
+      <c r="AH48" s="46"/>
+      <c r="AI48" s="46"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="39" t="str">
+        <f t="shared" ref="AK48" si="5">CONCATENATE("0x",BIN2HEX(E48&amp;F48&amp;G48&amp;H48)&amp;BIN2HEX(I48&amp;J48&amp;K48&amp;L48)&amp;BIN2HEX(M48&amp;N48&amp;O48&amp;P48)&amp;BIN2HEX(Q48&amp;R48&amp;S48&amp;T48)&amp;BIN2HEX(U48&amp;V48&amp;W48&amp;X48)&amp;BIN2HEX(Y48&amp;Z48&amp;AA48&amp;AB48)&amp;BIN2HEX(AC48&amp;AD48&amp;AE48&amp;AF48)&amp;BIN2HEX(AG48&amp;AH48&amp;AI48&amp;AJ48))</f>
+        <v>0x00000000</v>
+      </c>
+      <c r="AL48" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="43"/>
+      <c r="AL49" s="44"/>
+    </row>
+    <row r="50" spans="1:38" s="27" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="60">
+        <v>15</v>
+      </c>
+      <c r="D50" s="60" t="str">
+        <f t="shared" ref="D50:D51" si="6">CONCATENATE("0x00",DEC2HEX( $C50*4))</f>
+        <v>0x003C</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="L50" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="M50" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="N50" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="O50" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q50" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R50" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="S50" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="T50" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="U50" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="V50" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="W50" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="X50" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y50" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z50" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA50" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB50" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC50" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD50" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE50" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF50" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG50" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH50" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI50" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ50" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK50" s="28"/>
+      <c r="AL50" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" s="27" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="59"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="46"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="39" t="str">
+        <f t="shared" ref="AK51" si="7">CONCATENATE("0x",BIN2HEX(E51&amp;F51&amp;G51&amp;H51)&amp;BIN2HEX(I51&amp;J51&amp;K51&amp;L51)&amp;BIN2HEX(M51&amp;N51&amp;O51&amp;P51)&amp;BIN2HEX(Q51&amp;R51&amp;S51&amp;T51)&amp;BIN2HEX(U51&amp;V51&amp;W51&amp;X51)&amp;BIN2HEX(Y51&amp;Z51&amp;AA51&amp;AB51)&amp;BIN2HEX(AC51&amp;AD51&amp;AE51&amp;AF51)&amp;BIN2HEX(AG51&amp;AH51&amp;AI51&amp;AJ51))</f>
+        <v>0x00000000</v>
+      </c>
+      <c r="AL51" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="AK52" s="33"/>
+    </row>
+    <row r="53" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="AK53" s="33"/>
+    </row>
+    <row r="54" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="AK54" s="33"/>
+    </row>
+    <row r="55" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="AK55" s="33"/>
+    </row>
+    <row r="56" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="AK56" s="33"/>
+    </row>
+    <row r="57" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="AK57" s="33"/>
+    </row>
+    <row r="58" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="AK58" s="33"/>
+    </row>
+    <row r="59" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="AK59" s="33"/>
+    </row>
+    <row r="60" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="AK60" s="33"/>
+    </row>
+    <row r="61" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="AK61" s="33"/>
+    </row>
+    <row r="62" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="AK62" s="33"/>
+    </row>
+    <row r="63" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="AK63" s="33"/>
+    </row>
+    <row r="64" spans="1:38" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="AK64" s="33"/>
+    </row>
+    <row r="65" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="33"/>
+      <c r="D65" s="33"/>
+      <c r="AK65" s="33"/>
+    </row>
+    <row r="66" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="AK66" s="33"/>
+    </row>
+    <row r="67" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="33"/>
+      <c r="D67" s="33"/>
+      <c r="AK67" s="33"/>
+    </row>
+    <row r="68" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="33"/>
+      <c r="D68" s="33"/>
+      <c r="AK68" s="33"/>
+    </row>
+    <row r="69" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="33"/>
+      <c r="D69" s="33"/>
+      <c r="AK69" s="33"/>
+    </row>
+    <row r="70" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="AK70" s="33"/>
+    </row>
+    <row r="71" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="33"/>
+      <c r="D71" s="33"/>
+      <c r="AK71" s="33"/>
+    </row>
+    <row r="72" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="AK72" s="33"/>
+    </row>
+    <row r="73" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="AK73" s="33"/>
+    </row>
+    <row r="74" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="AK74" s="33"/>
+    </row>
+    <row r="75" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="AK75" s="33"/>
+    </row>
+    <row r="76" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="AK76" s="33"/>
+    </row>
+    <row r="77" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="AK77" s="33"/>
+    </row>
+    <row r="78" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="AK78" s="33"/>
+    </row>
+    <row r="79" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="AK79" s="33"/>
+    </row>
+    <row r="80" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="AK80" s="33"/>
+    </row>
+    <row r="81" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="AK81" s="33"/>
+    </row>
+    <row r="82" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="AK82" s="33"/>
+    </row>
+    <row r="83" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="AK83" s="33"/>
+    </row>
+    <row r="84" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="AK84" s="33"/>
+    </row>
+    <row r="85" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="AK85" s="33"/>
+    </row>
+    <row r="86" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="AK86" s="33"/>
+    </row>
+    <row r="87" spans="3:37" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="AK87" s="33"/>
+    </row>
+    <row r="88" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="34"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="32"/>
+      <c r="AK88" s="34"/>
+    </row>
+    <row r="89" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="34"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="32"/>
+      <c r="AK89" s="34"/>
+    </row>
+    <row r="90" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="34"/>
+      <c r="D90" s="33"/>
+      <c r="AK90" s="34"/>
+    </row>
+    <row r="91" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="34"/>
+      <c r="D91" s="33"/>
+      <c r="AK91" s="34"/>
+    </row>
+    <row r="92" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="34"/>
+      <c r="D92" s="33"/>
+      <c r="AK92" s="34"/>
+    </row>
+    <row r="93" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="34"/>
+      <c r="D93" s="33"/>
+      <c r="AK93" s="34"/>
+    </row>
+    <row r="94" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="34"/>
+      <c r="D94" s="33"/>
+      <c r="AK94" s="34"/>
+    </row>
+    <row r="95" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="AK95" s="34"/>
+    </row>
+    <row r="96" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="AK96" s="34"/>
+    </row>
+    <row r="97" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="AK97" s="34"/>
+    </row>
+    <row r="98" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="AK98" s="34"/>
+    </row>
+    <row r="99" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="AK99" s="34"/>
+    </row>
+    <row r="100" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C100" s="34"/>
+      <c r="D100" s="34"/>
+      <c r="AK100" s="34"/>
+    </row>
+    <row r="101" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C101" s="34"/>
+      <c r="D101" s="34"/>
+      <c r="AK101" s="34"/>
+    </row>
+    <row r="102" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C102" s="34"/>
+      <c r="D102" s="34"/>
+      <c r="AK102" s="34"/>
+    </row>
+    <row r="103" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C103" s="34"/>
+      <c r="D103" s="34"/>
+      <c r="AK103" s="34"/>
+    </row>
+    <row r="104" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="AK104" s="34"/>
+    </row>
+    <row r="105" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C105" s="34"/>
+      <c r="D105" s="34"/>
+      <c r="AK105" s="34"/>
+    </row>
+    <row r="106" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C106" s="34"/>
+      <c r="D106" s="34"/>
+      <c r="AK106" s="34"/>
+    </row>
+    <row r="107" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="34"/>
+      <c r="D107" s="34"/>
+      <c r="AK107" s="34"/>
+    </row>
+    <row r="108" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="34"/>
+      <c r="D108" s="34"/>
+      <c r="AK108" s="34"/>
+    </row>
+    <row r="109" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="34"/>
+      <c r="D109" s="34"/>
+      <c r="AK109" s="34"/>
+    </row>
+    <row r="110" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="AK110" s="34"/>
+    </row>
+    <row r="111" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="AK111" s="34"/>
+    </row>
+    <row r="112" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="AK112" s="34"/>
+    </row>
+    <row r="113" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="AK113" s="34"/>
+    </row>
+    <row r="114" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="AK114" s="34"/>
+    </row>
+    <row r="115" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="AK115" s="34"/>
+    </row>
+    <row r="116" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="AK116" s="34"/>
+    </row>
+    <row r="117" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="AK117" s="34"/>
+    </row>
+    <row r="118" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="AK118" s="34"/>
+    </row>
+    <row r="119" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
+      <c r="AK119" s="34"/>
+    </row>
+    <row r="120" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C120" s="34"/>
+      <c r="D120" s="34"/>
+      <c r="AK120" s="34"/>
+    </row>
+    <row r="121" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C121" s="34"/>
+      <c r="D121" s="34"/>
+      <c r="AK121" s="34"/>
+    </row>
+    <row r="122" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="AK122" s="34"/>
+    </row>
+    <row r="123" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="AK123" s="34"/>
+    </row>
+    <row r="124" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C124" s="34"/>
+      <c r="D124" s="34"/>
+      <c r="AK124" s="34"/>
+    </row>
+    <row r="125" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C125" s="34"/>
+      <c r="D125" s="34"/>
+      <c r="AK125" s="34"/>
+    </row>
+    <row r="126" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="AK126" s="34"/>
+    </row>
+    <row r="127" spans="3:37" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="34"/>
+      <c r="D127" s="34"/>
+      <c r="AK127" s="34"/>
+    </row>
+    <row r="128" spans="3:37" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="AK128" s="9"/>
+    </row>
+    <row r="129" spans="3:37" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="AK129" s="9"/>
+    </row>
+    <row r="130" spans="3:37" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="AK130" s="9"/>
     </row>
     <row r="131" spans="3:37" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C131" s="9"/>
@@ -4230,45 +5299,52 @@
       <c r="D211" s="9"/>
       <c r="AK211" s="9"/>
     </row>
-    <row r="212" spans="3:37" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-      <c r="AK212" s="9"/>
-    </row>
-    <row r="213" spans="3:37" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
-      <c r="AK213" s="9"/>
-    </row>
-    <row r="214" spans="3:37" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
-      <c r="AK214" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="U35:AJ35"/>
-    <mergeCell ref="Y11:AJ11"/>
-    <mergeCell ref="Y14:AJ14"/>
-    <mergeCell ref="Y17:AJ17"/>
-    <mergeCell ref="Y20:AJ20"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="E38:T38"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="U38:AJ38"/>
-    <mergeCell ref="E32:AJ33"/>
-    <mergeCell ref="E23:AJ24"/>
-    <mergeCell ref="E26:AJ27"/>
-    <mergeCell ref="E29:AJ30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
+  <mergeCells count="82">
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E5:AJ6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="AC8:AF8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:AJ1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:AJ2"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
@@ -4285,36 +5361,28 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A1:AJ1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:AJ2"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E32:AJ33"/>
+    <mergeCell ref="E23:AJ24"/>
+    <mergeCell ref="E26:AJ27"/>
+    <mergeCell ref="E29:AJ30"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E5:AJ6"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E35:T35"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
+    <mergeCell ref="Y11:AJ11"/>
+    <mergeCell ref="Y14:AJ14"/>
+    <mergeCell ref="Y17:AJ17"/>
+    <mergeCell ref="Y20:AJ20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="17" scale="32" orientation="portrait" r:id="rId1"/>
